--- a/monthly_reports/monthly_data/2021 Charts Month 5.xlsx
+++ b/monthly_reports/monthly_data/2021 Charts Month 5.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="31">
   <si>
     <t>Artist</t>
   </si>
@@ -36,33 +36,60 @@
     <t>YouTube_Views</t>
   </si>
   <si>
+    <t>Crankdat, JT Roach</t>
+  </si>
+  <si>
     <t>Tokyo Machine, Saxsquatch</t>
   </si>
   <si>
-    <t>Crankdat, JT Roach</t>
-  </si>
-  <si>
     <t>Cheyenne Giles</t>
   </si>
   <si>
+    <t>Faith</t>
+  </si>
+  <si>
+    <t>Bear Grillz, Nevve</t>
+  </si>
+  <si>
+    <t>Zack Evans</t>
+  </si>
+  <si>
+    <t>Better Without You</t>
+  </si>
+  <si>
     <t>CANTINA</t>
   </si>
   <si>
-    <t>Better Without You</t>
-  </si>
-  <si>
     <t>Jump Around</t>
   </si>
   <si>
+    <t>Giving Everything</t>
+  </si>
+  <si>
+    <t>Head In The Clouds</t>
+  </si>
+  <si>
+    <t>Age Of Clarity</t>
+  </si>
+  <si>
+    <t>Monstercat</t>
+  </si>
+  <si>
     <t>NONE</t>
   </si>
   <si>
-    <t>Monstercat</t>
-  </si>
-  <si>
     <t>Musical Freedom</t>
   </si>
   <si>
+    <t>HEXAGON</t>
+  </si>
+  <si>
+    <t>Dim Mak</t>
+  </si>
+  <si>
+    <t>Enhanced Music</t>
+  </si>
+  <si>
     <t>1001T_Supports</t>
   </si>
   <si>
@@ -72,16 +99,22 @@
     <t>Soundcloud_Plays</t>
   </si>
   <si>
+    <t>Crankdat</t>
+  </si>
+  <si>
+    <t>JT Roach</t>
+  </si>
+  <si>
     <t>Saxsquatch</t>
   </si>
   <si>
     <t>Tokyo Machine</t>
   </si>
   <si>
-    <t>Crankdat</t>
-  </si>
-  <si>
-    <t>JT Roach</t>
+    <t>Bear Grillz</t>
+  </si>
+  <si>
+    <t>Nevve</t>
   </si>
 </sst>
 </file>
@@ -439,7 +472,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -464,13 +497,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D2">
-        <v>41633</v>
+        <v>60429</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -478,13 +511,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D3">
-        <v>38611</v>
+        <v>56289</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -492,13 +525,55 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4">
+        <v>6674</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5">
+        <v>3449</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4">
-        <v>3820</v>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7">
+        <v>1006</v>
       </c>
     </row>
   </sheetData>
@@ -508,7 +583,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +600,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -536,49 +611,100 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D2">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="E2">
-        <v>63</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>0</v>
       </c>
     </row>
@@ -589,7 +715,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -606,21 +732,21 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D2">
-        <v>9484</v>
+        <v>27228</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -628,27 +754,69 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D3">
-        <v>6626</v>
+        <v>11638</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4">
+        <v>8286</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>2507</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4">
-        <v>5405</v>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7">
+        <v>424</v>
       </c>
     </row>
   </sheetData>
@@ -657,6 +825,315 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2">
+        <v>60429</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3">
+        <v>60429</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4">
+        <v>56289</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5">
+        <v>56289</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>6674</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>3449</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1006</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>77</v>
+      </c>
+      <c r="C2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2">
+        <v>27228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3">
+        <v>27228</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>11638</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5">
+        <v>8286</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6">
+        <v>8286</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7">
+        <v>2507</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8">
+        <v>2507</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>424</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -666,7 +1143,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -677,39 +1154,39 @@
         <v>16</v>
       </c>
       <c r="B2">
-        <v>41633</v>
+        <v>60429</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3">
-        <v>41633</v>
+        <v>6674</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4">
-        <v>38611</v>
+        <v>3449</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5">
-        <v>38611</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B6">
-        <v>3820</v>
+        <v>1006</v>
       </c>
     </row>
   </sheetData>
@@ -717,7 +1194,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -727,46 +1204,46 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B2">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="C2">
-        <v>63</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -777,12 +1254,12 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -796,7 +1273,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -806,170 +1283,50 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B2">
-        <v>9484</v>
+        <v>27228</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3">
-        <v>9484</v>
+        <v>11638</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B4">
-        <v>6626</v>
+        <v>2507</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B5">
-        <v>5405</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B6">
-        <v>5405</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2">
-        <v>38611</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3">
-        <v>3820</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2">
-        <v>54</v>
-      </c>
-      <c r="C2">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2">
-        <v>9484</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3">
-        <v>6626</v>
+        <v>424</v>
       </c>
     </row>
   </sheetData>

--- a/monthly_reports/monthly_data/2021 Charts Month 5.xlsx
+++ b/monthly_reports/monthly_data/2021 Charts Month 5.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="66">
   <si>
     <t>Artist</t>
   </si>
@@ -36,54 +36,114 @@
     <t>YouTube_Views</t>
   </si>
   <si>
+    <t>AREA21, Martin Garrix, Maejor</t>
+  </si>
+  <si>
+    <t>Doctor Neiman, Micah Martin</t>
+  </si>
+  <si>
+    <t>Slushii</t>
+  </si>
+  <si>
     <t>Crankdat, JT Roach</t>
   </si>
   <si>
     <t>Tokyo Machine, Saxsquatch</t>
   </si>
   <si>
+    <t>Julian Calor, She Is Jules</t>
+  </si>
+  <si>
+    <t>SMACK, 22Bullets, Lovespeake</t>
+  </si>
+  <si>
+    <t>Malarkey</t>
+  </si>
+  <si>
+    <t>insaneintherainmusic</t>
+  </si>
+  <si>
+    <t>Hardwell, Amba Shepherd, SICK INDIVIDUALS</t>
+  </si>
+  <si>
+    <t>Faith</t>
+  </si>
+  <si>
     <t>Cheyenne Giles</t>
   </si>
   <si>
-    <t>Faith</t>
-  </si>
-  <si>
     <t>Bear Grillz, Nevve</t>
   </si>
   <si>
     <t>Zack Evans</t>
   </si>
   <si>
+    <t>Pogo</t>
+  </si>
+  <si>
+    <t>Wait For Me</t>
+  </si>
+  <si>
+    <t>Valhalla</t>
+  </si>
+  <si>
     <t>Better Without You</t>
   </si>
   <si>
     <t>CANTINA</t>
   </si>
   <si>
+    <t>Deep End</t>
+  </si>
+  <si>
+    <t>Ride Or Die</t>
+  </si>
+  <si>
+    <t>Rejoice</t>
+  </si>
+  <si>
+    <t>The Descent</t>
+  </si>
+  <si>
+    <t>Apollo (SICK INDIVIDUALS Remix)</t>
+  </si>
+  <si>
+    <t>Giving Everything</t>
+  </si>
+  <si>
     <t>Jump Around</t>
   </si>
   <si>
-    <t>Giving Everything</t>
-  </si>
-  <si>
     <t>Head In The Clouds</t>
   </si>
   <si>
     <t>Age Of Clarity</t>
   </si>
   <si>
+    <t>STMPD RCRDS, Hollywood Records</t>
+  </si>
+  <si>
+    <t>NCS</t>
+  </si>
+  <si>
     <t>Monstercat</t>
   </si>
   <si>
     <t>NONE</t>
   </si>
   <si>
+    <t>Future House Music</t>
+  </si>
+  <si>
+    <t>HEXAGON</t>
+  </si>
+  <si>
+    <t>Revealed Music</t>
+  </si>
+  <si>
     <t>Musical Freedom</t>
   </si>
   <si>
-    <t>HEXAGON</t>
-  </si>
-  <si>
     <t>Dim Mak</t>
   </si>
   <si>
@@ -99,6 +159,21 @@
     <t>Soundcloud_Plays</t>
   </si>
   <si>
+    <t>AREA21</t>
+  </si>
+  <si>
+    <t>Maejor</t>
+  </si>
+  <si>
+    <t>Martin Garrix</t>
+  </si>
+  <si>
+    <t>Doctor Neiman</t>
+  </si>
+  <si>
+    <t>Micah Martin</t>
+  </si>
+  <si>
     <t>Crankdat</t>
   </si>
   <si>
@@ -111,10 +186,40 @@
     <t>Tokyo Machine</t>
   </si>
   <si>
+    <t>Julian Calor</t>
+  </si>
+  <si>
+    <t>She Is Jules</t>
+  </si>
+  <si>
+    <t>22Bullets</t>
+  </si>
+  <si>
+    <t>Lovespeake</t>
+  </si>
+  <si>
+    <t>SMACK</t>
+  </si>
+  <si>
+    <t>Amba Shepherd</t>
+  </si>
+  <si>
+    <t>Hardwell</t>
+  </si>
+  <si>
+    <t>SICK INDIVIDUALS</t>
+  </si>
+  <si>
     <t>Bear Grillz</t>
   </si>
   <si>
     <t>Nevve</t>
+  </si>
+  <si>
+    <t>Hollywood Records</t>
+  </si>
+  <si>
+    <t>STMPD RCRDS</t>
   </si>
 </sst>
 </file>
@@ -472,7 +577,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -497,13 +602,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D2">
-        <v>60429</v>
+        <v>230510</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -511,13 +616,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D3">
-        <v>56289</v>
+        <v>218175</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -525,13 +630,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D4">
-        <v>6674</v>
+        <v>87463</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -539,13 +644,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D5">
-        <v>3449</v>
+        <v>73214</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -553,13 +658,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D6">
-        <v>2033</v>
+        <v>67769</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -567,13 +672,125 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7">
+        <v>23888</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8">
+        <v>22866</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9">
+        <v>21397</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10">
+        <v>19348</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11">
+        <v>18289</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12">
+        <v>11675</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7">
-        <v>1006</v>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13">
+        <v>8854</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14">
+        <v>4018</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15">
+        <v>1514</v>
       </c>
     </row>
   </sheetData>
@@ -583,7 +800,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -600,111 +817,247 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="D2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="E2">
-        <v>94</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="E3">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5">
+        <v>11</v>
+      </c>
+      <c r="E5">
         <v>16</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
       <c r="E6">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
         <v>20</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
         <v>0</v>
       </c>
     </row>
@@ -715,7 +1068,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -732,21 +1085,21 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D2">
-        <v>27228</v>
+        <v>39323</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -754,69 +1107,181 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D3">
-        <v>11638</v>
+        <v>29447</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="D4">
-        <v>8286</v>
+        <v>14706</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D5">
-        <v>2507</v>
+        <v>12284</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D6">
-        <v>1794</v>
+        <v>10801</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D7">
-        <v>424</v>
+        <v>10709</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8">
+        <v>5118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9">
+        <v>4153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10">
+        <v>3313</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11">
+        <v>2257</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -826,7 +1291,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -842,74 +1307,202 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="B2">
-        <v>60429</v>
+        <v>230510</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="B3">
-        <v>60429</v>
+        <v>230510</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="B4">
-        <v>56289</v>
+        <v>230510</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="B5">
-        <v>56289</v>
+        <v>218175</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="B6">
-        <v>6674</v>
+        <v>218175</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>3449</v>
+        <v>87463</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B8">
-        <v>2033</v>
+        <v>73214</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="B9">
-        <v>2033</v>
+        <v>73214</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="B10">
-        <v>1006</v>
+        <v>67769</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11">
+        <v>67769</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12">
+        <v>23888</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13">
+        <v>23888</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14">
+        <v>22866</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15">
+        <v>22866</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16">
+        <v>22866</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17">
+        <v>21397</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18">
+        <v>19348</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19">
+        <v>18289</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20">
+        <v>18289</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21">
+        <v>18289</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22">
+        <v>11675</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23">
+        <v>8854</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24">
+        <v>4018</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25">
+        <v>4018</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26">
+        <v>1514</v>
       </c>
     </row>
   </sheetData>
@@ -919,7 +1512,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -930,108 +1523,284 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="C2">
-        <v>94</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
         <v>0</v>
       </c>
     </row>
@@ -1042,7 +1811,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1053,23 +1822,23 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="B2">
-        <v>27228</v>
+        <v>39323</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="B3">
-        <v>27228</v>
+        <v>39323</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1077,55 +1846,183 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>11638</v>
+        <v>29447</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B5">
-        <v>8286</v>
+        <v>14706</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="B6">
-        <v>8286</v>
+        <v>12284</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="B7">
-        <v>2507</v>
+        <v>12284</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="B8">
-        <v>2507</v>
+        <v>10801</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="B9">
-        <v>1794</v>
+        <v>10801</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="B10">
-        <v>424</v>
+        <v>10709</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11">
+        <v>10709</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12">
+        <v>5118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13">
+        <v>5118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14">
+        <v>5118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>4153</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16">
+        <v>3313</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17">
+        <v>2257</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18">
+        <v>2257</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1135,7 +2032,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1151,42 +2048,82 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="B2">
-        <v>60429</v>
+        <v>230510</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="B3">
-        <v>6674</v>
+        <v>230510</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B4">
-        <v>3449</v>
+        <v>218175</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B5">
-        <v>2033</v>
+        <v>184565</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B6">
-        <v>1006</v>
+        <v>33072</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7">
+        <v>22866</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8">
+        <v>18289</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9">
+        <v>8854</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10">
+        <v>4018</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11">
+        <v>1514</v>
       </c>
     </row>
   </sheetData>
@@ -1196,7 +2133,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1207,64 +2144,119 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="B2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="C2">
-        <v>94</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5">
+        <v>11</v>
+      </c>
+      <c r="C5">
         <v>16</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
         <v>0</v>
       </c>
     </row>
@@ -1275,7 +2267,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1286,47 +2278,87 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="B2">
-        <v>27228</v>
+        <v>79571</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="B3">
-        <v>11638</v>
+        <v>14706</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="B4">
-        <v>2507</v>
+        <v>12284</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="B5">
-        <v>1794</v>
+        <v>7466</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="B6">
-        <v>424</v>
+        <v>5118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7">
+        <v>2257</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11">
+        <v>831</v>
       </c>
     </row>
   </sheetData>

--- a/monthly_reports/monthly_data/2021 Charts Month 5.xlsx
+++ b/monthly_reports/monthly_data/2021 Charts Month 5.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="83">
   <si>
     <t>Artist</t>
   </si>
@@ -36,6 +36,9 @@
     <t>YouTube_Views</t>
   </si>
   <si>
+    <t>Don Diablo, Jordan Mackampa</t>
+  </si>
+  <si>
     <t>AREA21, Martin Garrix, Maejor</t>
   </si>
   <si>
@@ -48,36 +51,48 @@
     <t>Crankdat, JT Roach</t>
   </si>
   <si>
+    <t>Dyro, Conro</t>
+  </si>
+  <si>
     <t>Tokyo Machine, Saxsquatch</t>
   </si>
   <si>
+    <t>Hardwell, Amba Shepherd, SICK INDIVIDUALS</t>
+  </si>
+  <si>
+    <t>SMACK, 22Bullets, Lovespeake</t>
+  </si>
+  <si>
+    <t>Basstian, Ivan Camacho</t>
+  </si>
+  <si>
+    <t>insaneintherainmusic</t>
+  </si>
+  <si>
     <t>Julian Calor, She Is Jules</t>
   </si>
   <si>
-    <t>SMACK, 22Bullets, Lovespeake</t>
-  </si>
-  <si>
     <t>Malarkey</t>
   </si>
   <si>
-    <t>insaneintherainmusic</t>
-  </si>
-  <si>
-    <t>Hardwell, Amba Shepherd, SICK INDIVIDUALS</t>
-  </si>
-  <si>
     <t>Faith</t>
   </si>
   <si>
+    <t>Bear Grillz, Nevve</t>
+  </si>
+  <si>
     <t>Cheyenne Giles</t>
   </si>
   <si>
-    <t>Bear Grillz, Nevve</t>
+    <t>Janelle</t>
   </si>
   <si>
     <t>Zack Evans</t>
   </si>
   <si>
+    <t>Through The Storm</t>
+  </si>
+  <si>
     <t>Pogo</t>
   </si>
   <si>
@@ -90,36 +105,48 @@
     <t>Better Without You</t>
   </si>
   <si>
+    <t>Memory Bank</t>
+  </si>
+  <si>
     <t>CANTINA</t>
   </si>
   <si>
+    <t>Apollo (SICK INDIVIDUALS Remix)</t>
+  </si>
+  <si>
+    <t>Ride Or Die</t>
+  </si>
+  <si>
+    <t>Make You Mine</t>
+  </si>
+  <si>
+    <t>The Descent</t>
+  </si>
+  <si>
     <t>Deep End</t>
   </si>
   <si>
-    <t>Ride Or Die</t>
-  </si>
-  <si>
     <t>Rejoice</t>
   </si>
   <si>
-    <t>The Descent</t>
-  </si>
-  <si>
-    <t>Apollo (SICK INDIVIDUALS Remix)</t>
-  </si>
-  <si>
     <t>Giving Everything</t>
   </si>
   <si>
+    <t>Head In The Clouds</t>
+  </si>
+  <si>
     <t>Jump Around</t>
   </si>
   <si>
-    <t>Head In The Clouds</t>
+    <t>Keep On Dancing</t>
   </si>
   <si>
     <t>Age Of Clarity</t>
   </si>
   <si>
+    <t>HEXAGON</t>
+  </si>
+  <si>
     <t>STMPD RCRDS, Hollywood Records</t>
   </si>
   <si>
@@ -132,19 +159,22 @@
     <t>NONE</t>
   </si>
   <si>
+    <t>Revealed Music</t>
+  </si>
+  <si>
     <t>Future House Music</t>
   </si>
   <si>
-    <t>HEXAGON</t>
-  </si>
-  <si>
-    <t>Revealed Music</t>
+    <t>Revealed Music, Revealed Radar</t>
+  </si>
+  <si>
+    <t>Dim Mak</t>
   </si>
   <si>
     <t>Musical Freedom</t>
   </si>
   <si>
-    <t>Dim Mak</t>
+    <t>Future House Cloud</t>
   </si>
   <si>
     <t>Enhanced Music</t>
@@ -159,6 +189,12 @@
     <t>Soundcloud_Plays</t>
   </si>
   <si>
+    <t>Don Diablo</t>
+  </si>
+  <si>
+    <t>Jordan Mackampa</t>
+  </si>
+  <si>
     <t>AREA21</t>
   </si>
   <si>
@@ -180,36 +216,48 @@
     <t>JT Roach</t>
   </si>
   <si>
+    <t>Conro</t>
+  </si>
+  <si>
+    <t>Dyro</t>
+  </si>
+  <si>
     <t>Saxsquatch</t>
   </si>
   <si>
     <t>Tokyo Machine</t>
   </si>
   <si>
+    <t>Amba Shepherd</t>
+  </si>
+  <si>
+    <t>Hardwell</t>
+  </si>
+  <si>
+    <t>SICK INDIVIDUALS</t>
+  </si>
+  <si>
+    <t>22Bullets</t>
+  </si>
+  <si>
+    <t>Lovespeake</t>
+  </si>
+  <si>
+    <t>SMACK</t>
+  </si>
+  <si>
+    <t>Basstian</t>
+  </si>
+  <si>
+    <t>Ivan Camacho</t>
+  </si>
+  <si>
     <t>Julian Calor</t>
   </si>
   <si>
     <t>She Is Jules</t>
   </si>
   <si>
-    <t>22Bullets</t>
-  </si>
-  <si>
-    <t>Lovespeake</t>
-  </si>
-  <si>
-    <t>SMACK</t>
-  </si>
-  <si>
-    <t>Amba Shepherd</t>
-  </si>
-  <si>
-    <t>Hardwell</t>
-  </si>
-  <si>
-    <t>SICK INDIVIDUALS</t>
-  </si>
-  <si>
     <t>Bear Grillz</t>
   </si>
   <si>
@@ -220,6 +268,9 @@
   </si>
   <si>
     <t>STMPD RCRDS</t>
+  </si>
+  <si>
+    <t>Revealed Radar</t>
   </si>
 </sst>
 </file>
@@ -577,7 +628,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -602,13 +653,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D2">
-        <v>230510</v>
+        <v>734422</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -616,13 +667,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D3">
-        <v>218175</v>
+        <v>715504</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -630,13 +681,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D4">
-        <v>87463</v>
+        <v>574589</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -644,13 +695,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D5">
-        <v>73214</v>
+        <v>231037</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -658,13 +709,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D6">
-        <v>67769</v>
+        <v>82500</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -672,13 +723,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D7">
-        <v>23888</v>
+        <v>79465</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -686,13 +737,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D8">
-        <v>22866</v>
+        <v>79094</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -700,13 +751,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D9">
-        <v>21397</v>
+        <v>56954</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -714,13 +765,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D10">
-        <v>19348</v>
+        <v>31082</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -728,13 +779,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D11">
-        <v>18289</v>
+        <v>29847</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -742,13 +793,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D12">
-        <v>11675</v>
+        <v>29807</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -756,13 +807,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D13">
-        <v>8854</v>
+        <v>28976</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -770,13 +821,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
         <v>40</v>
       </c>
       <c r="D14">
-        <v>4018</v>
+        <v>24227</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -784,13 +835,69 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D15">
-        <v>1514</v>
+        <v>14025</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16">
+        <v>12036</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17">
+        <v>10496</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18">
+        <v>7451</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19">
+        <v>1696</v>
       </c>
     </row>
   </sheetData>
@@ -800,7 +907,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -817,61 +924,61 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D2">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="E2">
-        <v>106</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D3">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="E3">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D4">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E4">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -879,169 +986,169 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D6">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D7">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
         <v>40</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
       <c r="E9">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="E10">
         <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12">
         <v>4</v>
       </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
       <c r="E12">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1049,15 +1156,83 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
         <v>0</v>
       </c>
     </row>
@@ -1068,7 +1243,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1085,7 +1260,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1093,153 +1268,153 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D2">
-        <v>39323</v>
+        <v>56069</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D3">
-        <v>29447</v>
+        <v>48135</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D4">
-        <v>14706</v>
+        <v>25749</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D5">
-        <v>12284</v>
+        <v>22451</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="D6">
-        <v>10801</v>
+        <v>17267</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D7">
-        <v>10709</v>
+        <v>16353</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D8">
-        <v>5118</v>
+        <v>12922</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
         <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D9">
-        <v>4153</v>
+        <v>12589</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D10">
-        <v>3313</v>
+        <v>11380</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="D11">
-        <v>2257</v>
+        <v>9037</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D12">
-        <v>1668</v>
+        <v>6184</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1247,40 +1422,96 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D13">
-        <v>1017</v>
+        <v>5406</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="D14">
-        <v>831</v>
+        <v>4184</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D15">
+        <v>3685</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19">
         <v>0</v>
       </c>
     </row>
@@ -1291,7 +1522,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1307,202 +1538,258 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B2">
-        <v>230510</v>
+        <v>734422</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B3">
-        <v>230510</v>
+        <v>734422</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="B4">
-        <v>230510</v>
+        <v>715504</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B5">
-        <v>218175</v>
+        <v>715504</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B6">
-        <v>218175</v>
+        <v>715504</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="B7">
-        <v>87463</v>
+        <v>574589</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="B8">
-        <v>73214</v>
+        <v>574589</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>73214</v>
+        <v>231037</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="B10">
-        <v>67769</v>
+        <v>82500</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="B11">
-        <v>67769</v>
+        <v>82500</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="B12">
-        <v>23888</v>
+        <v>79465</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="B13">
-        <v>23888</v>
+        <v>79465</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B14">
-        <v>22866</v>
+        <v>79094</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B15">
-        <v>22866</v>
+        <v>79094</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="B16">
-        <v>22866</v>
+        <v>56954</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="B17">
-        <v>21397</v>
+        <v>56954</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="B18">
-        <v>19348</v>
+        <v>56954</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="B19">
-        <v>18289</v>
+        <v>31082</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="B20">
-        <v>18289</v>
+        <v>31082</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="B21">
-        <v>18289</v>
+        <v>31082</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="B22">
-        <v>11675</v>
+        <v>29847</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="B23">
-        <v>8854</v>
+        <v>29847</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="B24">
-        <v>4018</v>
+        <v>29807</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="B25">
-        <v>4018</v>
+        <v>28976</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26">
+        <v>28976</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27">
+        <v>24227</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B26">
-        <v>1514</v>
+      <c r="B28">
+        <v>14025</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29">
+        <v>12036</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30">
+        <v>12036</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31">
+        <v>10496</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32">
+        <v>7451</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33">
+        <v>1696</v>
       </c>
     </row>
   </sheetData>
@@ -1512,7 +1799,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1523,284 +1810,361 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B2">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="C2">
-        <v>106</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="B3">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C3">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="B4">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C4">
-        <v>43</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="B5">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C5">
-        <v>43</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="B6">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C6">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="B7">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C7">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="B8">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C8">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B9">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C9">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="B10">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C10">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="B11">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
         <v>0</v>
       </c>
     </row>
@@ -1811,7 +2175,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1822,206 +2186,262 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>39323</v>
+        <v>56069</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="B3">
-        <v>39323</v>
+        <v>48135</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="B4">
-        <v>29447</v>
+        <v>48135</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="B5">
-        <v>14706</v>
+        <v>25749</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B6">
-        <v>12284</v>
+        <v>25749</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B7">
-        <v>12284</v>
+        <v>22451</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="B8">
-        <v>10801</v>
+        <v>22451</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="B9">
-        <v>10801</v>
+        <v>17267</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="B10">
-        <v>10709</v>
+        <v>16353</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="B11">
-        <v>10709</v>
+        <v>16353</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="B12">
-        <v>5118</v>
+        <v>12922</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="B13">
-        <v>5118</v>
+        <v>12922</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B14">
-        <v>5118</v>
+        <v>12589</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="B15">
-        <v>4153</v>
+        <v>12589</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="B16">
-        <v>3313</v>
+        <v>11380</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="B17">
-        <v>2257</v>
+        <v>11380</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="B18">
-        <v>2257</v>
+        <v>9037</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="B19">
-        <v>1668</v>
+        <v>9037</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="B20">
-        <v>1668</v>
+        <v>9037</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B21">
-        <v>1668</v>
+        <v>6184</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="B22">
-        <v>1017</v>
+        <v>6184</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="B23">
-        <v>831</v>
+        <v>6184</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="B24">
-        <v>831</v>
+        <v>5406</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="B25">
-        <v>831</v>
+        <v>4184</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="B26">
+        <v>4184</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27">
+        <v>4184</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28">
+        <v>3685</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33">
         <v>0</v>
       </c>
     </row>
@@ -2032,7 +2452,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2048,82 +2468,98 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>230510</v>
+        <v>772674</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="B3">
-        <v>230510</v>
+        <v>715504</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="B4">
-        <v>218175</v>
+        <v>715504</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B5">
-        <v>184565</v>
+        <v>574589</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B6">
-        <v>33072</v>
+        <v>421978</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B7">
-        <v>22866</v>
+        <v>86801</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B8">
-        <v>18289</v>
+        <v>31082</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="B9">
-        <v>8854</v>
+        <v>29847</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B10">
-        <v>4018</v>
+        <v>12036</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B11">
-        <v>1514</v>
+        <v>10496</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12">
+        <v>7451</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13">
+        <v>1696</v>
       </c>
     </row>
   </sheetData>
@@ -2133,7 +2569,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2144,119 +2580,141 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B2">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="C2">
-        <v>106</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B3">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="C3">
-        <v>56</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B4">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C4">
-        <v>43</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B5">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="C5">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="B6">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C6">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
         <v>0</v>
       </c>
     </row>
@@ -2267,7 +2725,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2278,87 +2736,103 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B2">
-        <v>79571</v>
+        <v>139577</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B3">
-        <v>14706</v>
+        <v>25749</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="B4">
-        <v>12284</v>
+        <v>17267</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="B5">
-        <v>7466</v>
+        <v>16353</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B6">
-        <v>5118</v>
+        <v>15564</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="B7">
-        <v>2257</v>
+        <v>11380</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B8">
-        <v>1668</v>
+        <v>9091</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B9">
-        <v>1017</v>
+        <v>9037</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="B10">
-        <v>831</v>
+        <v>6184</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="B11">
-        <v>831</v>
+        <v>6184</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13">
+        <v>649</v>
       </c>
     </row>
   </sheetData>

--- a/monthly_reports/monthly_data/2021 Charts Month 5.xlsx
+++ b/monthly_reports/monthly_data/2021 Charts Month 5.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="88">
   <si>
     <t>Artist</t>
   </si>
@@ -36,42 +36,45 @@
     <t>YouTube_Views</t>
   </si>
   <si>
+    <t>AREA21, Martin Garrix, Maejor</t>
+  </si>
+  <si>
     <t>Don Diablo, Jordan Mackampa</t>
   </si>
   <si>
-    <t>AREA21, Martin Garrix, Maejor</t>
-  </si>
-  <si>
     <t>Doctor Neiman, Micah Martin</t>
   </si>
   <si>
     <t>Slushii</t>
   </si>
   <si>
+    <t>Dyro, Conro</t>
+  </si>
+  <si>
     <t>Crankdat, JT Roach</t>
   </si>
   <si>
-    <t>Dyro, Conro</t>
-  </si>
-  <si>
     <t>Tokyo Machine, Saxsquatch</t>
   </si>
   <si>
     <t>Hardwell, Amba Shepherd, SICK INDIVIDUALS</t>
   </si>
   <si>
+    <t>Madison Mars, Feldz</t>
+  </si>
+  <si>
     <t>SMACK, 22Bullets, Lovespeake</t>
   </si>
   <si>
+    <t>insaneintherainmusic</t>
+  </si>
+  <si>
+    <t>Julian Calor, She Is Jules</t>
+  </si>
+  <si>
     <t>Basstian, Ivan Camacho</t>
   </si>
   <si>
-    <t>insaneintherainmusic</t>
-  </si>
-  <si>
-    <t>Julian Calor, She Is Jules</t>
-  </si>
-  <si>
     <t>Malarkey</t>
   </si>
   <si>
@@ -90,42 +93,45 @@
     <t>Zack Evans</t>
   </si>
   <si>
+    <t>Pogo</t>
+  </si>
+  <si>
     <t>Through The Storm</t>
   </si>
   <si>
-    <t>Pogo</t>
-  </si>
-  <si>
     <t>Wait For Me</t>
   </si>
   <si>
     <t>Valhalla</t>
   </si>
   <si>
+    <t>Memory Bank</t>
+  </si>
+  <si>
     <t>Better Without You</t>
   </si>
   <si>
-    <t>Memory Bank</t>
-  </si>
-  <si>
     <t>CANTINA</t>
   </si>
   <si>
     <t>Apollo (SICK INDIVIDUALS Remix)</t>
   </si>
   <si>
+    <t>Darkside (VIP Mix)</t>
+  </si>
+  <si>
     <t>Ride Or Die</t>
   </si>
   <si>
+    <t>The Descent</t>
+  </si>
+  <si>
+    <t>Deep End</t>
+  </si>
+  <si>
     <t>Make You Mine</t>
   </si>
   <si>
-    <t>The Descent</t>
-  </si>
-  <si>
-    <t>Deep End</t>
-  </si>
-  <si>
     <t>Rejoice</t>
   </si>
   <si>
@@ -144,12 +150,12 @@
     <t>Age Of Clarity</t>
   </si>
   <si>
+    <t>STMPD RCRDS, Hollywood Records</t>
+  </si>
+  <si>
     <t>HEXAGON</t>
   </si>
   <si>
-    <t>STMPD RCRDS, Hollywood Records</t>
-  </si>
-  <si>
     <t>NCS</t>
   </si>
   <si>
@@ -162,6 +168,9 @@
     <t>Revealed Music</t>
   </si>
   <si>
+    <t>Spinnin' Records</t>
+  </si>
+  <si>
     <t>Future House Music</t>
   </si>
   <si>
@@ -189,39 +198,39 @@
     <t>Soundcloud_Plays</t>
   </si>
   <si>
+    <t>AREA21</t>
+  </si>
+  <si>
+    <t>Maejor</t>
+  </si>
+  <si>
+    <t>Martin Garrix</t>
+  </si>
+  <si>
     <t>Don Diablo</t>
   </si>
   <si>
     <t>Jordan Mackampa</t>
   </si>
   <si>
-    <t>AREA21</t>
-  </si>
-  <si>
-    <t>Maejor</t>
-  </si>
-  <si>
-    <t>Martin Garrix</t>
-  </si>
-  <si>
     <t>Doctor Neiman</t>
   </si>
   <si>
     <t>Micah Martin</t>
   </si>
   <si>
+    <t>Conro</t>
+  </si>
+  <si>
+    <t>Dyro</t>
+  </si>
+  <si>
     <t>Crankdat</t>
   </si>
   <si>
     <t>JT Roach</t>
   </si>
   <si>
-    <t>Conro</t>
-  </si>
-  <si>
-    <t>Dyro</t>
-  </si>
-  <si>
     <t>Saxsquatch</t>
   </si>
   <si>
@@ -237,6 +246,12 @@
     <t>SICK INDIVIDUALS</t>
   </si>
   <si>
+    <t>Feldz</t>
+  </si>
+  <si>
+    <t>Madison Mars</t>
+  </si>
+  <si>
     <t>22Bullets</t>
   </si>
   <si>
@@ -246,16 +261,16 @@
     <t>SMACK</t>
   </si>
   <si>
+    <t>Julian Calor</t>
+  </si>
+  <si>
+    <t>She Is Jules</t>
+  </si>
+  <si>
     <t>Basstian</t>
   </si>
   <si>
     <t>Ivan Camacho</t>
-  </si>
-  <si>
-    <t>Julian Calor</t>
-  </si>
-  <si>
-    <t>She Is Jules</t>
   </si>
   <si>
     <t>Bear Grillz</t>
@@ -628,7 +643,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -653,13 +668,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D2">
-        <v>734422</v>
+        <v>988518</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -667,13 +682,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D3">
-        <v>715504</v>
+        <v>762037</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -681,13 +696,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D4">
-        <v>574589</v>
+        <v>655415</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -695,13 +710,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D5">
-        <v>231037</v>
+        <v>508621</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -709,13 +724,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D6">
-        <v>82500</v>
+        <v>106226</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -723,13 +738,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D7">
-        <v>79465</v>
+        <v>87903</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -737,13 +752,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D8">
-        <v>79094</v>
+        <v>85460</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -751,13 +766,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D9">
-        <v>56954</v>
+        <v>78114</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -765,13 +780,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D10">
-        <v>31082</v>
+        <v>52711</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -779,13 +794,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D11">
-        <v>29847</v>
+        <v>36278</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -793,13 +808,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D12">
-        <v>29807</v>
+        <v>33310</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -807,13 +822,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D13">
-        <v>28976</v>
+        <v>31653</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -821,13 +836,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D14">
-        <v>24227</v>
+        <v>29827</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -835,13 +850,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D15">
-        <v>14025</v>
+        <v>24608</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -849,13 +864,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D16">
-        <v>12036</v>
+        <v>18138</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -863,13 +878,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D17">
-        <v>10496</v>
+        <v>13011</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -877,13 +892,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D18">
-        <v>7451</v>
+        <v>11546</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -891,13 +906,27 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D19">
-        <v>1696</v>
+        <v>8820</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20">
+        <v>1776</v>
       </c>
     </row>
   </sheetData>
@@ -907,7 +936,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -924,293 +953,293 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E2">
-        <v>121</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D3">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E3">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D4">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E4">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D6">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D7">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D8">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D9">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E9">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D10">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E10">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11">
-        <v>5</v>
-      </c>
       <c r="E11">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E12">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1221,18 +1250,35 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
         <v>0</v>
       </c>
     </row>
@@ -1243,7 +1289,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1260,7 +1306,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1268,27 +1314,27 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D2">
-        <v>56069</v>
+        <v>66233</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D3">
-        <v>48135</v>
+        <v>53328</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1296,27 +1342,27 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D4">
-        <v>25749</v>
+        <v>37296</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D5">
-        <v>22451</v>
+        <v>30596</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1324,194 +1370,208 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D6">
-        <v>17267</v>
+        <v>18911</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D7">
-        <v>16353</v>
+        <v>18788</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D8">
-        <v>12922</v>
+        <v>14513</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D9">
-        <v>12589</v>
+        <v>14079</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D10">
-        <v>11380</v>
+        <v>13794</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D11">
-        <v>9037</v>
+        <v>12992</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D12">
-        <v>6184</v>
+        <v>10705</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D13">
-        <v>5406</v>
+        <v>5997</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D14">
-        <v>4184</v>
+        <v>5508</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D15">
-        <v>3685</v>
+        <v>5223</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D16">
-        <v>1370</v>
+        <v>3911</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D17">
-        <v>649</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>720</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20">
         <v>0</v>
       </c>
     </row>
@@ -1522,7 +1582,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1538,58 +1598,58 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B2">
-        <v>734422</v>
+        <v>988518</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B3">
-        <v>734422</v>
+        <v>988518</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B4">
-        <v>715504</v>
+        <v>988518</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B5">
-        <v>715504</v>
+        <v>762037</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B6">
-        <v>715504</v>
+        <v>762037</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B7">
-        <v>574589</v>
+        <v>655415</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B8">
-        <v>574589</v>
+        <v>655415</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1597,119 +1657,119 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>231037</v>
+        <v>508621</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B10">
-        <v>82500</v>
+        <v>106226</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B11">
-        <v>82500</v>
+        <v>106226</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B12">
-        <v>79465</v>
+        <v>87903</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B13">
-        <v>79465</v>
+        <v>87903</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B14">
-        <v>79094</v>
+        <v>85460</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B15">
-        <v>79094</v>
+        <v>85460</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B16">
-        <v>56954</v>
+        <v>78114</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B17">
-        <v>56954</v>
+        <v>78114</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B18">
-        <v>56954</v>
+        <v>78114</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B19">
-        <v>31082</v>
+        <v>52711</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B20">
-        <v>31082</v>
+        <v>52711</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B21">
-        <v>31082</v>
+        <v>36278</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B22">
-        <v>29847</v>
+        <v>36278</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B23">
-        <v>29847</v>
+        <v>36278</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1717,79 +1777,95 @@
         <v>14</v>
       </c>
       <c r="B24">
-        <v>29807</v>
+        <v>33310</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B25">
-        <v>28976</v>
+        <v>31653</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B26">
-        <v>28976</v>
+        <v>31653</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="B27">
-        <v>24227</v>
+        <v>29827</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>17</v>
+        <v>82</v>
       </c>
       <c r="B28">
-        <v>14025</v>
+        <v>29827</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="B29">
-        <v>12036</v>
+        <v>24608</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="B30">
-        <v>12036</v>
+        <v>18138</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="B31">
-        <v>10496</v>
+        <v>13011</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="B32">
-        <v>7451</v>
+        <v>13011</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33">
+        <v>11546</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B33">
-        <v>1696</v>
+      <c r="B34">
+        <v>8820</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35">
+        <v>1776</v>
       </c>
     </row>
   </sheetData>
@@ -1799,7 +1875,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1810,334 +1886,334 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C2">
-        <v>121</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B3">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C3">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B4">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C4">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B5">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C5">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C6">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B7">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="B9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C9">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="B10">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C10">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B11">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C11">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B12">
         <v>21</v>
       </c>
       <c r="C12">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B13">
         <v>21</v>
       </c>
       <c r="C13">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="B14">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="B15">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C15">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>19</v>
+      </c>
+      <c r="C16">
         <v>20</v>
-      </c>
-      <c r="B16">
-        <v>6</v>
-      </c>
-      <c r="C16">
-        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="B17">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C17">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C18">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C19">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="B20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C20">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C22">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -2148,7 +2224,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -2159,12 +2235,34 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
       <c r="C33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
         <v>0</v>
       </c>
     </row>
@@ -2175,7 +2273,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2186,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2194,254 +2292,270 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>56069</v>
+        <v>66233</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B3">
-        <v>48135</v>
+        <v>53328</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B4">
-        <v>48135</v>
+        <v>53328</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B5">
-        <v>25749</v>
+        <v>37296</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B6">
-        <v>25749</v>
+        <v>37296</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7">
-        <v>22451</v>
+        <v>30596</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B8">
-        <v>22451</v>
+        <v>30596</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="B9">
-        <v>17267</v>
+        <v>18911</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B10">
-        <v>16353</v>
+        <v>18911</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="B11">
-        <v>16353</v>
+        <v>18788</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B12">
-        <v>12922</v>
+        <v>14513</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B13">
-        <v>12922</v>
+        <v>14513</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="B14">
-        <v>12589</v>
+        <v>14079</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="B15">
-        <v>12589</v>
+        <v>14079</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B16">
-        <v>11380</v>
+        <v>13794</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B17">
-        <v>11380</v>
+        <v>13794</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="B18">
-        <v>9037</v>
+        <v>12992</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="B19">
-        <v>9037</v>
+        <v>12992</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="B20">
-        <v>9037</v>
+        <v>12992</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="B21">
-        <v>6184</v>
+        <v>10705</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="B22">
-        <v>6184</v>
+        <v>10705</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="B23">
-        <v>6184</v>
+        <v>10705</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B24">
-        <v>5406</v>
+        <v>5997</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B25">
-        <v>4184</v>
+        <v>5508</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B26">
-        <v>4184</v>
+        <v>5508</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B27">
-        <v>4184</v>
+        <v>5223</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B28">
-        <v>3685</v>
+        <v>5223</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="B29">
-        <v>1370</v>
+        <v>5223</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B30">
-        <v>649</v>
+        <v>3911</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>720</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B33">
+      <c r="B35">
         <v>0</v>
       </c>
     </row>
@@ -2452,7 +2566,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2468,98 +2582,106 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="B2">
-        <v>772674</v>
+        <v>988518</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B3">
-        <v>715504</v>
+        <v>988518</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="B4">
-        <v>715504</v>
+        <v>804783</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B5">
-        <v>574589</v>
+        <v>734403</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B6">
-        <v>421978</v>
+        <v>655415</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B7">
-        <v>86801</v>
+        <v>107941</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B8">
-        <v>31082</v>
+        <v>52711</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="B9">
-        <v>29847</v>
+        <v>36278</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="B10">
-        <v>12036</v>
+        <v>29827</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B11">
-        <v>10496</v>
+        <v>13011</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B12">
-        <v>7451</v>
+        <v>11546</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B13">
-        <v>1696</v>
+        <v>8820</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14">
+        <v>1776</v>
       </c>
     </row>
   </sheetData>
@@ -2569,7 +2691,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2580,125 +2702,125 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C2">
-        <v>121</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B3">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C3">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B4">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C4">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B5">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C5">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B6">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B7">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C7">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="B8">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C8">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -2709,12 +2831,23 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14">
         <v>0</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>0</v>
       </c>
     </row>
@@ -2725,7 +2858,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2736,103 +2869,111 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B2">
-        <v>139577</v>
+        <v>164236</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B3">
-        <v>25749</v>
+        <v>37296</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B4">
-        <v>17267</v>
+        <v>19736</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B5">
-        <v>16353</v>
+        <v>18911</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B6">
-        <v>15564</v>
+        <v>18788</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B7">
-        <v>11380</v>
+        <v>14513</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="B8">
-        <v>9091</v>
+        <v>12992</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="B9">
-        <v>9037</v>
+        <v>12992</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B10">
-        <v>6184</v>
+        <v>10705</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="B11">
-        <v>6184</v>
+        <v>9908</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B12">
-        <v>1370</v>
+        <v>5508</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B13">
-        <v>649</v>
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14">
+        <v>720</v>
       </c>
     </row>
   </sheetData>

--- a/monthly_reports/monthly_data/2021 Charts Month 5.xlsx
+++ b/monthly_reports/monthly_data/2021 Charts Month 5.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="92">
   <si>
     <t>Artist</t>
   </si>
@@ -39,30 +39,33 @@
     <t>AREA21, Martin Garrix, Maejor</t>
   </si>
   <si>
+    <t>Slushii</t>
+  </si>
+  <si>
     <t>Don Diablo, Jordan Mackampa</t>
   </si>
   <si>
     <t>Doctor Neiman, Micah Martin</t>
   </si>
   <si>
-    <t>Slushii</t>
-  </si>
-  <si>
     <t>Dyro, Conro</t>
   </si>
   <si>
     <t>Crankdat, JT Roach</t>
   </si>
   <si>
+    <t>Hardwell, Amba Shepherd, SICK INDIVIDUALS</t>
+  </si>
+  <si>
     <t>Tokyo Machine, Saxsquatch</t>
   </si>
   <si>
-    <t>Hardwell, Amba Shepherd, SICK INDIVIDUALS</t>
-  </si>
-  <si>
     <t>Madison Mars, Feldz</t>
   </si>
   <si>
+    <t>Hardwell, Mitch Crown, Dr Phunk</t>
+  </si>
+  <si>
     <t>SMACK, 22Bullets, Lovespeake</t>
   </si>
   <si>
@@ -96,30 +99,33 @@
     <t>Pogo</t>
   </si>
   <si>
+    <t>Valhalla</t>
+  </si>
+  <si>
     <t>Through The Storm</t>
   </si>
   <si>
     <t>Wait For Me</t>
   </si>
   <si>
-    <t>Valhalla</t>
-  </si>
-  <si>
     <t>Memory Bank</t>
   </si>
   <si>
     <t>Better Without You</t>
   </si>
   <si>
+    <t>Apollo (SICK INDIVIDUALS Remix)</t>
+  </si>
+  <si>
     <t>CANTINA</t>
   </si>
   <si>
-    <t>Apollo (SICK INDIVIDUALS Remix)</t>
-  </si>
-  <si>
     <t>Darkside (VIP Mix)</t>
   </si>
   <si>
+    <t>Spaceman (Dr Phunk Remix)</t>
+  </si>
+  <si>
     <t>Ride Or Die</t>
   </si>
   <si>
@@ -153,21 +159,21 @@
     <t>STMPD RCRDS, Hollywood Records</t>
   </si>
   <si>
+    <t>Monstercat</t>
+  </si>
+  <si>
     <t>HEXAGON</t>
   </si>
   <si>
     <t>NCS</t>
   </si>
   <si>
-    <t>Monstercat</t>
+    <t>Revealed Music</t>
   </si>
   <si>
     <t>NONE</t>
   </si>
   <si>
-    <t>Revealed Music</t>
-  </si>
-  <si>
     <t>Spinnin' Records</t>
   </si>
   <si>
@@ -219,6 +225,9 @@
     <t>Micah Martin</t>
   </si>
   <si>
+    <t>Hardwell</t>
+  </si>
+  <si>
     <t>Conro</t>
   </si>
   <si>
@@ -231,25 +240,28 @@
     <t>JT Roach</t>
   </si>
   <si>
+    <t>Amba Shepherd</t>
+  </si>
+  <si>
+    <t>SICK INDIVIDUALS</t>
+  </si>
+  <si>
     <t>Saxsquatch</t>
   </si>
   <si>
     <t>Tokyo Machine</t>
   </si>
   <si>
-    <t>Amba Shepherd</t>
-  </si>
-  <si>
-    <t>Hardwell</t>
-  </si>
-  <si>
-    <t>SICK INDIVIDUALS</t>
-  </si>
-  <si>
     <t>Feldz</t>
   </si>
   <si>
     <t>Madison Mars</t>
+  </si>
+  <si>
+    <t>Dr Phunk</t>
+  </si>
+  <si>
+    <t>Mitch Crown</t>
   </si>
   <si>
     <t>22Bullets</t>
@@ -643,7 +655,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -668,13 +680,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D2">
-        <v>988518</v>
+        <v>1253102</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -682,13 +694,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D3">
-        <v>762037</v>
+        <v>845393</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -696,13 +708,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D4">
-        <v>655415</v>
+        <v>791093</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -710,13 +722,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D5">
-        <v>508621</v>
+        <v>727723</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -724,13 +736,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
         <v>45</v>
       </c>
       <c r="D6">
-        <v>106226</v>
+        <v>130365</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -738,13 +750,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
         <v>45</v>
       </c>
       <c r="D7">
-        <v>87903</v>
+        <v>93665</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -752,13 +764,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D8">
-        <v>85460</v>
+        <v>93542</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -766,13 +778,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D9">
-        <v>78114</v>
+        <v>93322</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -780,13 +792,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D10">
-        <v>52711</v>
+        <v>64987</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -794,13 +806,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D11">
-        <v>36278</v>
+        <v>53718</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -808,13 +820,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D12">
-        <v>33310</v>
+        <v>40999</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -822,13 +834,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D13">
-        <v>31653</v>
+        <v>36314</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -836,13 +848,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D14">
-        <v>29827</v>
+        <v>34488</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -850,13 +862,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="D15">
-        <v>24608</v>
+        <v>31674</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -864,13 +876,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D16">
-        <v>18138</v>
+        <v>25009</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -878,13 +890,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D17">
-        <v>13011</v>
+        <v>19171</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -892,13 +904,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18">
-        <v>11546</v>
+        <v>13755</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -906,13 +918,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D19">
-        <v>8820</v>
+        <v>12628</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -920,13 +932,27 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D20">
-        <v>1776</v>
+        <v>9338</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21">
+        <v>1895</v>
       </c>
     </row>
   </sheetData>
@@ -936,7 +962,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -953,245 +979,245 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D2">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E2">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D3">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E3">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D4">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E4">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D5">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6">
+        <v>25</v>
+      </c>
+      <c r="E6">
         <v>30</v>
-      </c>
-      <c r="C6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6">
-        <v>23</v>
-      </c>
-      <c r="E6">
-        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D7">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D9">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10">
+        <v>21</v>
+      </c>
+      <c r="E10">
         <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10">
-        <v>11</v>
-      </c>
-      <c r="E10">
-        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D11">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E11">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D12">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E12">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E13">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
         <v>45</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E15">
         <v>4</v>
@@ -1199,10 +1225,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
         <v>45</v>
@@ -1211,52 +1237,52 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1267,18 +1293,35 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C20" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
         <v>0</v>
       </c>
     </row>
@@ -1289,7 +1332,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1306,21 +1349,21 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
         <v>45</v>
       </c>
       <c r="D2">
-        <v>66233</v>
+        <v>78893</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1328,27 +1371,27 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
         <v>45</v>
       </c>
       <c r="D3">
-        <v>53328</v>
+        <v>60137</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D4">
-        <v>37296</v>
+        <v>42728</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1356,222 +1399,236 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
         <v>45</v>
       </c>
       <c r="D5">
-        <v>30596</v>
+        <v>38723</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D6">
-        <v>18911</v>
+        <v>21270</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D7">
-        <v>18788</v>
+        <v>20561</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D8">
-        <v>14513</v>
+        <v>20375</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D9">
-        <v>14079</v>
+        <v>19728</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D10">
-        <v>13794</v>
+        <v>15383</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D11">
-        <v>12992</v>
+        <v>15146</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D12">
-        <v>10705</v>
+        <v>12593</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D13">
-        <v>5997</v>
+        <v>7203</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
         <v>48</v>
       </c>
       <c r="D14">
-        <v>5508</v>
+        <v>6284</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D15">
-        <v>5223</v>
+        <v>6094</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D16">
-        <v>3911</v>
+        <v>4843</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D17">
-        <v>1624</v>
+        <v>4183</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D18">
-        <v>720</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>803</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21">
         <v>0</v>
       </c>
     </row>
@@ -1582,7 +1639,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1598,274 +1655,290 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B2">
-        <v>988518</v>
+        <v>1253102</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B3">
-        <v>988518</v>
+        <v>1253102</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B4">
-        <v>988518</v>
+        <v>1253102</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>762037</v>
+        <v>845393</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B6">
-        <v>762037</v>
+        <v>791093</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B7">
-        <v>655415</v>
+        <v>791093</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B8">
-        <v>655415</v>
+        <v>727723</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="B9">
-        <v>508621</v>
+        <v>727723</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B10">
-        <v>106226</v>
+        <v>147260</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B11">
-        <v>106226</v>
+        <v>130365</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B12">
-        <v>87903</v>
+        <v>130365</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B13">
-        <v>87903</v>
+        <v>93665</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B14">
-        <v>85460</v>
+        <v>93665</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B15">
-        <v>85460</v>
+        <v>93542</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B16">
-        <v>78114</v>
+        <v>93542</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B17">
-        <v>78114</v>
+        <v>93322</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B18">
-        <v>78114</v>
+        <v>93322</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B19">
-        <v>52711</v>
+        <v>64987</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B20">
-        <v>52711</v>
+        <v>64987</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B21">
-        <v>36278</v>
+        <v>53718</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B22">
-        <v>36278</v>
+        <v>53718</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B23">
-        <v>36278</v>
+        <v>40999</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="B24">
-        <v>33310</v>
+        <v>40999</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B25">
-        <v>31653</v>
+        <v>40999</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="B26">
-        <v>31653</v>
+        <v>36314</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B27">
-        <v>29827</v>
+        <v>34488</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B28">
-        <v>29827</v>
+        <v>34488</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="B29">
-        <v>24608</v>
+        <v>31674</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="B30">
-        <v>18138</v>
+        <v>31674</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="B31">
-        <v>13011</v>
+        <v>25009</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="B32">
-        <v>13011</v>
+        <v>19171</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="B33">
-        <v>11546</v>
+        <v>13755</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="B34">
-        <v>8820</v>
+        <v>13755</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35">
+        <v>12628</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B35">
-        <v>1776</v>
+      <c r="B36">
+        <v>9338</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37">
+        <v>1895</v>
       </c>
     </row>
   </sheetData>
@@ -1875,7 +1948,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1886,271 +1959,271 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C2">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B3">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C3">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B4">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C4">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B5">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C5">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C6">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="B7">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="C7">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B9">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="B10">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="B11">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="B12">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="B13">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B14">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C14">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="B15">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C15">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="B16">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C16">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="B17">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C17">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
         <v>21</v>
       </c>
-      <c r="B18">
-        <v>9</v>
-      </c>
       <c r="C18">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C19">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="B20">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C20">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="B21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C21">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="B22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C22">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C24">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C25">
         <v>4</v>
@@ -2158,46 +2231,46 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2213,29 +2286,29 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -2246,7 +2319,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -2257,12 +2330,34 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
       <c r="C35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
         <v>0</v>
       </c>
     </row>
@@ -2273,7 +2368,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2284,278 +2379,294 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>66233</v>
+        <v>78893</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B3">
-        <v>53328</v>
+        <v>60137</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B4">
-        <v>53328</v>
+        <v>60137</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B5">
-        <v>37296</v>
+        <v>42728</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B6">
-        <v>37296</v>
+        <v>42728</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B7">
-        <v>30596</v>
+        <v>38723</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B8">
-        <v>30596</v>
+        <v>38723</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B9">
-        <v>18911</v>
+        <v>21270</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B10">
-        <v>18911</v>
+        <v>21270</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="B11">
-        <v>18788</v>
+        <v>20561</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="B12">
-        <v>14513</v>
+        <v>20561</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="B13">
-        <v>14513</v>
+        <v>20561</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>14079</v>
+        <v>20375</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B15">
-        <v>14079</v>
+        <v>19728</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="B16">
-        <v>13794</v>
+        <v>19728</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="B17">
-        <v>13794</v>
+        <v>15383</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="B18">
-        <v>12992</v>
+        <v>15383</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="B19">
-        <v>12992</v>
+        <v>15146</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="B20">
-        <v>12992</v>
+        <v>15146</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B21">
-        <v>10705</v>
+        <v>12593</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B22">
-        <v>10705</v>
+        <v>12593</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B23">
-        <v>10705</v>
+        <v>12593</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="B24">
-        <v>5997</v>
+        <v>11127</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B25">
-        <v>5508</v>
+        <v>7203</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B26">
-        <v>5508</v>
+        <v>7203</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B27">
-        <v>5223</v>
+        <v>6284</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B28">
-        <v>5223</v>
+        <v>6284</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="B29">
-        <v>5223</v>
+        <v>6094</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="B30">
-        <v>3911</v>
+        <v>4843</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="B31">
-        <v>1624</v>
+        <v>4843</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B32">
-        <v>720</v>
+        <v>4183</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>803</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="B35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37">
         <v>0</v>
       </c>
     </row>
@@ -2582,106 +2693,106 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B2">
-        <v>988518</v>
+        <v>1253102</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B3">
-        <v>988518</v>
+        <v>1253102</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B4">
-        <v>804783</v>
+        <v>1103911</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B5">
-        <v>734403</v>
+        <v>835273</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B6">
-        <v>655415</v>
+        <v>727723</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B7">
-        <v>107941</v>
+        <v>178934</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B8">
-        <v>52711</v>
+        <v>64987</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B9">
-        <v>36278</v>
+        <v>40999</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B10">
-        <v>29827</v>
+        <v>31674</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B11">
-        <v>13011</v>
+        <v>13755</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B12">
-        <v>11546</v>
+        <v>12628</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B13">
-        <v>8820</v>
+        <v>9338</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B14">
-        <v>1776</v>
+        <v>1895</v>
       </c>
     </row>
   </sheetData>
@@ -2702,87 +2813,87 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B2">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C2">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B3">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C3">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B4">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="C4">
-        <v>61</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B5">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="C5">
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B6">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B7">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C7">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B8">
         <v>11</v>
       </c>
       <c r="C8">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2790,15 +2901,15 @@
         <v>45</v>
       </c>
       <c r="B9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -2809,18 +2920,18 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B11">
         <v>4</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -2831,7 +2942,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -2842,7 +2953,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2869,7 +2980,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2877,103 +2988,103 @@
         <v>45</v>
       </c>
       <c r="B2">
-        <v>164236</v>
+        <v>193136</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B3">
-        <v>37296</v>
+        <v>42728</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B4">
-        <v>19736</v>
+        <v>30855</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B5">
-        <v>18911</v>
+        <v>21270</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="B6">
-        <v>18788</v>
+        <v>20561</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B7">
-        <v>14513</v>
+        <v>20561</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="B8">
-        <v>12992</v>
+        <v>20375</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B9">
-        <v>12992</v>
+        <v>19728</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B10">
-        <v>10705</v>
+        <v>12593</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B11">
-        <v>9908</v>
+        <v>10277</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B12">
-        <v>5508</v>
+        <v>7203</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B13">
-        <v>1624</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B14">
-        <v>720</v>
+        <v>803</v>
       </c>
     </row>
   </sheetData>

--- a/monthly_reports/monthly_data/2021 Charts Month 5.xlsx
+++ b/monthly_reports/monthly_data/2021 Charts Month 5.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="102">
   <si>
     <t>Artist</t>
   </si>
@@ -51,13 +51,16 @@
     <t>Dyro, Conro</t>
   </si>
   <si>
+    <t>Tokyo Machine, Saxsquatch</t>
+  </si>
+  <si>
+    <t>Hardwell, Amba Shepherd, SICK INDIVIDUALS</t>
+  </si>
+  <si>
     <t>Crankdat, JT Roach</t>
   </si>
   <si>
-    <t>Hardwell, Amba Shepherd, SICK INDIVIDUALS</t>
-  </si>
-  <si>
-    <t>Tokyo Machine, Saxsquatch</t>
+    <t>Steff da Campo, Olaf Blackwood, Robbie Mendez</t>
   </si>
   <si>
     <t>Madison Mars, Feldz</t>
@@ -66,6 +69,9 @@
     <t>Hardwell, Mitch Crown, Dr Phunk</t>
   </si>
   <si>
+    <t>Basstian, Ivan Camacho</t>
+  </si>
+  <si>
     <t>SMACK, 22Bullets, Lovespeake</t>
   </si>
   <si>
@@ -75,15 +81,15 @@
     <t>Julian Calor, She Is Jules</t>
   </si>
   <si>
-    <t>Basstian, Ivan Camacho</t>
-  </si>
-  <si>
     <t>Malarkey</t>
   </si>
   <si>
     <t>Faith</t>
   </si>
   <si>
+    <t>Aiobahn, rionos, Tollef</t>
+  </si>
+  <si>
     <t>Bear Grillz, Nevve</t>
   </si>
   <si>
@@ -111,13 +117,16 @@
     <t>Memory Bank</t>
   </si>
   <si>
+    <t>CANTINA</t>
+  </si>
+  <si>
+    <t>Apollo (SICK INDIVIDUALS Remix)</t>
+  </si>
+  <si>
     <t>Better Without You</t>
   </si>
   <si>
-    <t>Apollo (SICK INDIVIDUALS Remix)</t>
-  </si>
-  <si>
-    <t>CANTINA</t>
+    <t>State Of Mind (Robbie Mendez Remix)</t>
   </si>
   <si>
     <t>Darkside (VIP Mix)</t>
@@ -126,6 +135,9 @@
     <t>Spaceman (Dr Phunk Remix)</t>
   </si>
   <si>
+    <t>Make You Mine</t>
+  </si>
+  <si>
     <t>Ride Or Die</t>
   </si>
   <si>
@@ -135,15 +147,15 @@
     <t>Deep End</t>
   </si>
   <si>
-    <t>Make You Mine</t>
-  </si>
-  <si>
     <t>Rejoice</t>
   </si>
   <si>
     <t>Giving Everything</t>
   </si>
   <si>
+    <t>amnesia (Tollef Remix)</t>
+  </si>
+  <si>
     <t>Head In The Clouds</t>
   </si>
   <si>
@@ -168,19 +180,22 @@
     <t>NCS</t>
   </si>
   <si>
+    <t>NONE</t>
+  </si>
+  <si>
     <t>Revealed Music</t>
   </si>
   <si>
-    <t>NONE</t>
-  </si>
-  <si>
     <t>Spinnin' Records</t>
   </si>
   <si>
+    <t>Revealed Music, Revealed Radar</t>
+  </si>
+  <si>
     <t>Future House Music</t>
   </si>
   <si>
-    <t>Revealed Music, Revealed Radar</t>
+    <t>STMPD RCRDS</t>
   </si>
   <si>
     <t>Dim Mak</t>
@@ -234,22 +249,31 @@
     <t>Dyro</t>
   </si>
   <si>
+    <t>Saxsquatch</t>
+  </si>
+  <si>
+    <t>Tokyo Machine</t>
+  </si>
+  <si>
+    <t>Amba Shepherd</t>
+  </si>
+  <si>
+    <t>SICK INDIVIDUALS</t>
+  </si>
+  <si>
     <t>Crankdat</t>
   </si>
   <si>
     <t>JT Roach</t>
   </si>
   <si>
-    <t>Amba Shepherd</t>
-  </si>
-  <si>
-    <t>SICK INDIVIDUALS</t>
-  </si>
-  <si>
-    <t>Saxsquatch</t>
-  </si>
-  <si>
-    <t>Tokyo Machine</t>
+    <t>Olaf Blackwood</t>
+  </si>
+  <si>
+    <t>Robbie Mendez</t>
+  </si>
+  <si>
+    <t>Steff da Campo</t>
   </si>
   <si>
     <t>Feldz</t>
@@ -264,6 +288,12 @@
     <t>Mitch Crown</t>
   </si>
   <si>
+    <t>Basstian</t>
+  </si>
+  <si>
+    <t>Ivan Camacho</t>
+  </si>
+  <si>
     <t>22Bullets</t>
   </si>
   <si>
@@ -279,10 +309,13 @@
     <t>She Is Jules</t>
   </si>
   <si>
-    <t>Basstian</t>
-  </si>
-  <si>
-    <t>Ivan Camacho</t>
+    <t>Aiobahn</t>
+  </si>
+  <si>
+    <t>Tollef</t>
+  </si>
+  <si>
+    <t>rionos</t>
   </si>
   <si>
     <t>Bear Grillz</t>
@@ -292,9 +325,6 @@
   </si>
   <si>
     <t>Hollywood Records</t>
-  </si>
-  <si>
-    <t>STMPD RCRDS</t>
   </si>
   <si>
     <t>Revealed Radar</t>
@@ -655,7 +685,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -680,13 +710,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D2">
-        <v>1253102</v>
+        <v>2447620</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -694,13 +724,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D3">
-        <v>845393</v>
+        <v>908237</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -708,13 +738,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D4">
-        <v>791093</v>
+        <v>822946</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -722,13 +752,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D5">
-        <v>727723</v>
+        <v>794343</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -736,13 +766,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D6">
-        <v>130365</v>
+        <v>156681</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -750,13 +780,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D7">
-        <v>93665</v>
+        <v>102741</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -764,13 +794,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D8">
-        <v>93542</v>
+        <v>102550</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -778,13 +808,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
         <v>49</v>
       </c>
       <c r="D9">
-        <v>93322</v>
+        <v>100232</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -792,13 +822,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D10">
-        <v>64987</v>
+        <v>76803</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -806,13 +836,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D11">
-        <v>53718</v>
+        <v>74389</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -820,13 +850,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D12">
-        <v>40999</v>
+        <v>58263</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -834,13 +864,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D13">
-        <v>36314</v>
+        <v>48001</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -848,13 +878,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D14">
-        <v>34488</v>
+        <v>45564</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -862,13 +892,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
         <v>52</v>
       </c>
       <c r="D15">
-        <v>31674</v>
+        <v>38932</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -876,13 +906,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D16">
-        <v>25009</v>
+        <v>36980</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -890,13 +920,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D17">
-        <v>19171</v>
+        <v>25381</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -904,13 +934,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D18">
-        <v>13755</v>
+        <v>19689</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -918,13 +948,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D19">
-        <v>12628</v>
+        <v>17119</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -932,13 +962,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D20">
-        <v>9338</v>
+        <v>14655</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -946,13 +976,41 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D21">
-        <v>1895</v>
+        <v>13751</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22">
+        <v>9665</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23">
+        <v>2009</v>
       </c>
     </row>
   </sheetData>
@@ -962,7 +1020,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -979,112 +1037,112 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E2">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D3">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E3">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D4">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E4">
-        <v>51</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D5">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="E5">
-        <v>31</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
         <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D6">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E6">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D7">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1092,16 +1150,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D8">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1109,98 +1167,98 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D10">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D11">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D12">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E12">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D13">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E13">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E14">
         <v>6</v>
@@ -1208,33 +1266,33 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E15">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E16">
         <v>4</v>
@@ -1242,16 +1300,16 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1259,69 +1317,103 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
         <v>49</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s">
         <v>49</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
         <v>0</v>
       </c>
     </row>
@@ -1332,7 +1424,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1349,7 +1441,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1357,27 +1449,27 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D2">
-        <v>78893</v>
+        <v>92261</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D3">
-        <v>60137</v>
+        <v>68083</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1385,13 +1477,13 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D4">
-        <v>42728</v>
+        <v>47607</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1399,111 +1491,111 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D5">
-        <v>38723</v>
+        <v>46249</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D6">
-        <v>21270</v>
+        <v>32104</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="D7">
-        <v>20561</v>
+        <v>24242</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D8">
-        <v>20375</v>
+        <v>21989</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D9">
-        <v>19728</v>
+        <v>20854</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D10">
-        <v>15383</v>
+        <v>16570</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
         <v>49</v>
       </c>
       <c r="D11">
-        <v>15146</v>
+        <v>16543</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D12">
-        <v>12593</v>
+        <v>15125</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1511,124 +1603,152 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D13">
-        <v>7203</v>
+        <v>9040</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D14">
-        <v>6284</v>
+        <v>8401</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D15">
-        <v>6094</v>
+        <v>7391</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D16">
-        <v>4843</v>
+        <v>6773</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D17">
-        <v>4183</v>
+        <v>5796</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D18">
-        <v>1804</v>
+        <v>4496</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D19">
-        <v>803</v>
+        <v>3957</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
         <v>6</v>
       </c>
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21">
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23">
         <v>0</v>
       </c>
     </row>
@@ -1639,7 +1759,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1655,26 +1775,26 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B2">
-        <v>1253102</v>
+        <v>2447620</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B3">
-        <v>1253102</v>
+        <v>2447620</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B4">
-        <v>1253102</v>
+        <v>2447620</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1682,263 +1802,311 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>845393</v>
+        <v>908237</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B6">
-        <v>791093</v>
+        <v>822946</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B7">
-        <v>791093</v>
+        <v>822946</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B8">
-        <v>727723</v>
+        <v>794343</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B9">
-        <v>727723</v>
+        <v>794343</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B10">
-        <v>147260</v>
+        <v>160813</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B11">
-        <v>130365</v>
+        <v>156681</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B12">
-        <v>130365</v>
+        <v>156681</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B13">
-        <v>93665</v>
+        <v>102741</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B14">
-        <v>93665</v>
+        <v>102741</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B15">
-        <v>93542</v>
+        <v>102550</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B16">
-        <v>93542</v>
+        <v>102550</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B17">
-        <v>93322</v>
+        <v>100232</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B18">
-        <v>93322</v>
+        <v>100232</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B19">
-        <v>64987</v>
+        <v>76803</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B20">
-        <v>64987</v>
+        <v>76803</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B21">
-        <v>53718</v>
+        <v>76803</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B22">
-        <v>53718</v>
+        <v>74389</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B23">
-        <v>40999</v>
+        <v>74389</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B24">
-        <v>40999</v>
+        <v>58263</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B25">
-        <v>40999</v>
+        <v>58263</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="B26">
-        <v>36314</v>
+        <v>48001</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B27">
-        <v>34488</v>
+        <v>48001</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B28">
-        <v>34488</v>
+        <v>45564</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B29">
-        <v>31674</v>
+        <v>45564</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B30">
-        <v>31674</v>
+        <v>45564</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B31">
-        <v>25009</v>
+        <v>38932</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="B32">
-        <v>19171</v>
+        <v>36980</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="B33">
-        <v>13755</v>
+        <v>36980</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="B34">
-        <v>13755</v>
+        <v>25381</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B35">
-        <v>12628</v>
+        <v>19689</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="B36">
-        <v>9338</v>
+        <v>17119</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B37">
+        <v>17119</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B38">
+        <v>17119</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B39">
+        <v>14655</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B40">
+        <v>14655</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B37">
-        <v>1895</v>
+      <c r="B41">
+        <v>13751</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B42">
+        <v>9665</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B43">
+        <v>2009</v>
       </c>
     </row>
   </sheetData>
@@ -1948,7 +2116,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1959,131 +2127,131 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C2">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B3">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C3">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="B4">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C4">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B5">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C5">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="B6">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C6">
-        <v>51</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="B7">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C7">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="B8">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="C8">
-        <v>31</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B9">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="C9">
-        <v>31</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="B10">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="C10">
-        <v>30</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B11">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C11">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="B12">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C12">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2091,128 +2259,128 @@
         <v>77</v>
       </c>
       <c r="B13">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C13">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="B14">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C14">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B15">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C15">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B16">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C16">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B17">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C17">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="B18">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C18">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="B19">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C19">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20">
         <v>22</v>
       </c>
-      <c r="B20">
-        <v>9</v>
-      </c>
       <c r="C20">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="B21">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C21">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C22">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C23">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="B24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C24">
         <v>6</v>
@@ -2220,144 +2388,210 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B25">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C25">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="B26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C26">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>5</v>
+        <v>99</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C27">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C29">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
-        <v>75</v>
+        <v>5</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39">
         <v>0</v>
       </c>
-      <c r="C37">
+      <c r="C39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
         <v>0</v>
       </c>
     </row>
@@ -2368,7 +2602,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2379,7 +2613,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2387,286 +2621,334 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>78893</v>
+        <v>92261</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="B3">
-        <v>60137</v>
+        <v>68083</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="B4">
-        <v>60137</v>
+        <v>68083</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B5">
-        <v>42728</v>
+        <v>47607</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B6">
-        <v>42728</v>
+        <v>47607</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B7">
-        <v>38723</v>
+        <v>46249</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B8">
-        <v>38723</v>
+        <v>46249</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="B9">
-        <v>21270</v>
+        <v>32104</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="B10">
-        <v>21270</v>
+        <v>32104</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="B11">
-        <v>20561</v>
+        <v>32104</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="B12">
-        <v>20561</v>
+        <v>24242</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="B13">
-        <v>20561</v>
+        <v>24242</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B14">
-        <v>20375</v>
+        <v>21989</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B15">
-        <v>19728</v>
+        <v>20854</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B16">
-        <v>19728</v>
+        <v>20854</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B17">
-        <v>15383</v>
+        <v>16570</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B18">
-        <v>15383</v>
+        <v>16570</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="B19">
-        <v>15146</v>
+        <v>16543</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="B20">
-        <v>15146</v>
+        <v>16543</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B21">
-        <v>12593</v>
+        <v>15125</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="B22">
-        <v>12593</v>
+        <v>15125</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B23">
-        <v>12593</v>
+        <v>15125</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B24">
-        <v>11127</v>
+        <v>13187</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B25">
-        <v>7203</v>
+        <v>9040</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B26">
-        <v>7203</v>
+        <v>9040</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="B27">
-        <v>6284</v>
+        <v>9040</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B28">
-        <v>6284</v>
+        <v>8401</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="B29">
-        <v>6094</v>
+        <v>8401</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B30">
-        <v>4843</v>
+        <v>7391</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B31">
-        <v>4843</v>
+        <v>7391</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B32">
-        <v>4183</v>
+        <v>6773</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="B33">
-        <v>1804</v>
+        <v>5796</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="B34">
-        <v>803</v>
+        <v>5796</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>4496</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>3957</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="B37">
+        <v>3957</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B38">
+        <v>3957</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39">
+        <v>2096</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B40">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B43">
         <v>0</v>
       </c>
     </row>
@@ -2693,106 +2975,106 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="B2">
-        <v>1253102</v>
+        <v>2464739</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B3">
-        <v>1253102</v>
+        <v>2447620</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B4">
-        <v>1103911</v>
+        <v>1202130</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B5">
-        <v>835273</v>
+        <v>868016</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B6">
-        <v>727723</v>
+        <v>794343</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B7">
-        <v>178934</v>
+        <v>208814</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B8">
-        <v>64987</v>
+        <v>151192</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="B9">
-        <v>40999</v>
+        <v>48001</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="B10">
-        <v>31674</v>
+        <v>45564</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B11">
-        <v>13755</v>
+        <v>14655</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B12">
-        <v>12628</v>
+        <v>13751</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B13">
-        <v>9338</v>
+        <v>9665</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B14">
-        <v>1895</v>
+        <v>2009</v>
       </c>
     </row>
   </sheetData>
@@ -2813,114 +3095,114 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C2">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B3">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C3">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B4">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C4">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B5">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C5">
-        <v>68</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="B6">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="C6">
-        <v>30</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="B7">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C7">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B8">
         <v>11</v>
       </c>
       <c r="C8">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="B9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B11">
         <v>4</v>
@@ -2931,29 +3213,29 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2980,31 +3262,31 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B2">
-        <v>193136</v>
+        <v>223136</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B3">
-        <v>42728</v>
+        <v>47607</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B4">
-        <v>30855</v>
+        <v>36061</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3012,55 +3294,55 @@
         <v>53</v>
       </c>
       <c r="B5">
-        <v>21270</v>
+        <v>34041</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="B6">
-        <v>20561</v>
+        <v>32104</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="B7">
-        <v>20561</v>
+        <v>24242</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B8">
-        <v>20375</v>
+        <v>21989</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B9">
-        <v>19728</v>
+        <v>20854</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B10">
-        <v>12593</v>
+        <v>17441</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B11">
-        <v>10277</v>
+        <v>15125</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3068,23 +3350,23 @@
         <v>50</v>
       </c>
       <c r="B12">
-        <v>7203</v>
+        <v>11269</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B13">
-        <v>1804</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B14">
-        <v>803</v>
+        <v>938</v>
       </c>
     </row>
   </sheetData>

--- a/monthly_reports/monthly_data/2021 Charts Month 5.xlsx
+++ b/monthly_reports/monthly_data/2021 Charts Month 5.xlsx
@@ -240,13 +240,13 @@
     <t>Micah Martin</t>
   </si>
   <si>
+    <t>Conro</t>
+  </si>
+  <si>
+    <t>Dyro</t>
+  </si>
+  <si>
     <t>Hardwell</t>
-  </si>
-  <si>
-    <t>Conro</t>
-  </si>
-  <si>
-    <t>Dyro</t>
   </si>
   <si>
     <t>Saxsquatch</t>
@@ -716,7 +716,7 @@
         <v>48</v>
       </c>
       <c r="D2">
-        <v>2447620</v>
+        <v>2695658</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -730,7 +730,7 @@
         <v>49</v>
       </c>
       <c r="D3">
-        <v>908237</v>
+        <v>917109</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -744,7 +744,7 @@
         <v>50</v>
       </c>
       <c r="D4">
-        <v>822946</v>
+        <v>830516</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -758,7 +758,7 @@
         <v>51</v>
       </c>
       <c r="D5">
-        <v>794343</v>
+        <v>809198</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -772,7 +772,7 @@
         <v>49</v>
       </c>
       <c r="D6">
-        <v>156681</v>
+        <v>163898</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -786,7 +786,7 @@
         <v>52</v>
       </c>
       <c r="D7">
-        <v>102741</v>
+        <v>105860</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -800,7 +800,7 @@
         <v>53</v>
       </c>
       <c r="D8">
-        <v>102550</v>
+        <v>104366</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -814,7 +814,7 @@
         <v>49</v>
       </c>
       <c r="D9">
-        <v>100232</v>
+        <v>101952</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -828,7 +828,7 @@
         <v>54</v>
       </c>
       <c r="D10">
-        <v>76803</v>
+        <v>78138</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -842,7 +842,7 @@
         <v>54</v>
       </c>
       <c r="D11">
-        <v>74389</v>
+        <v>76049</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -856,7 +856,7 @@
         <v>53</v>
       </c>
       <c r="D12">
-        <v>58263</v>
+        <v>59379</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -870,7 +870,7 @@
         <v>55</v>
       </c>
       <c r="D13">
-        <v>48001</v>
+        <v>49144</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -884,7 +884,7 @@
         <v>56</v>
       </c>
       <c r="D14">
-        <v>45564</v>
+        <v>46850</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -898,7 +898,7 @@
         <v>52</v>
       </c>
       <c r="D15">
-        <v>38932</v>
+        <v>39527</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -912,7 +912,7 @@
         <v>49</v>
       </c>
       <c r="D16">
-        <v>36980</v>
+        <v>37611</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -926,7 +926,7 @@
         <v>50</v>
       </c>
       <c r="D17">
-        <v>25381</v>
+        <v>25460</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -940,7 +940,7 @@
         <v>50</v>
       </c>
       <c r="D18">
-        <v>19689</v>
+        <v>19811</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -954,7 +954,7 @@
         <v>57</v>
       </c>
       <c r="D19">
-        <v>17119</v>
+        <v>17485</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -968,7 +968,7 @@
         <v>58</v>
       </c>
       <c r="D20">
-        <v>14655</v>
+        <v>14964</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -982,7 +982,7 @@
         <v>59</v>
       </c>
       <c r="D21">
-        <v>13751</v>
+        <v>14086</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -996,7 +996,7 @@
         <v>60</v>
       </c>
       <c r="D22">
-        <v>9665</v>
+        <v>9747</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1010,7 +1010,7 @@
         <v>61</v>
       </c>
       <c r="D23">
-        <v>2009</v>
+        <v>2040</v>
       </c>
     </row>
   </sheetData>
@@ -1054,10 +1054,10 @@
         <v>59</v>
       </c>
       <c r="D2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E2">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1071,10 +1071,10 @@
         <v>56</v>
       </c>
       <c r="D3">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E3">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1088,10 +1088,10 @@
         <v>54</v>
       </c>
       <c r="D4">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E4">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1108,7 +1108,7 @@
         <v>47</v>
       </c>
       <c r="E5">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1125,7 +1125,7 @@
         <v>28</v>
       </c>
       <c r="E6">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1455,7 +1455,7 @@
         <v>49</v>
       </c>
       <c r="D2">
-        <v>92261</v>
+        <v>95629</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1469,7 +1469,7 @@
         <v>49</v>
       </c>
       <c r="D3">
-        <v>68083</v>
+        <v>70320</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1483,7 +1483,7 @@
         <v>51</v>
       </c>
       <c r="D4">
-        <v>47607</v>
+        <v>48821</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1497,7 +1497,7 @@
         <v>49</v>
       </c>
       <c r="D5">
-        <v>46249</v>
+        <v>47924</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1511,7 +1511,7 @@
         <v>48</v>
       </c>
       <c r="D6">
-        <v>32104</v>
+        <v>35477</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1525,7 +1525,7 @@
         <v>58</v>
       </c>
       <c r="D7">
-        <v>24242</v>
+        <v>25078</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1539,7 +1539,7 @@
         <v>59</v>
       </c>
       <c r="D8">
-        <v>21989</v>
+        <v>22417</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1553,7 +1553,7 @@
         <v>55</v>
       </c>
       <c r="D9">
-        <v>20854</v>
+        <v>21761</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1567,7 +1567,7 @@
         <v>52</v>
       </c>
       <c r="D10">
-        <v>16570</v>
+        <v>16936</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1581,7 +1581,7 @@
         <v>49</v>
       </c>
       <c r="D11">
-        <v>16543</v>
+        <v>16821</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1595,7 +1595,7 @@
         <v>56</v>
       </c>
       <c r="D12">
-        <v>15125</v>
+        <v>15702</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1609,7 +1609,7 @@
         <v>54</v>
       </c>
       <c r="D13">
-        <v>9040</v>
+        <v>9270</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1623,7 +1623,7 @@
         <v>54</v>
       </c>
       <c r="D14">
-        <v>8401</v>
+        <v>8642</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1637,7 +1637,7 @@
         <v>53</v>
       </c>
       <c r="D15">
-        <v>7391</v>
+        <v>7671</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1651,7 +1651,7 @@
         <v>50</v>
       </c>
       <c r="D16">
-        <v>6773</v>
+        <v>6907</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1665,7 +1665,7 @@
         <v>53</v>
       </c>
       <c r="D17">
-        <v>5796</v>
+        <v>6076</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1679,7 +1679,7 @@
         <v>50</v>
       </c>
       <c r="D18">
-        <v>4496</v>
+        <v>4573</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1693,7 +1693,7 @@
         <v>57</v>
       </c>
       <c r="D19">
-        <v>3957</v>
+        <v>4116</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1707,7 +1707,7 @@
         <v>61</v>
       </c>
       <c r="D20">
-        <v>2096</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1721,7 +1721,7 @@
         <v>60</v>
       </c>
       <c r="D21">
-        <v>938</v>
+        <v>948</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1778,7 +1778,7 @@
         <v>65</v>
       </c>
       <c r="B2">
-        <v>2447620</v>
+        <v>2695658</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1786,7 +1786,7 @@
         <v>66</v>
       </c>
       <c r="B3">
-        <v>2447620</v>
+        <v>2695658</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1794,7 +1794,7 @@
         <v>67</v>
       </c>
       <c r="B4">
-        <v>2447620</v>
+        <v>2695658</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1802,7 +1802,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>908237</v>
+        <v>917109</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1810,7 +1810,7 @@
         <v>68</v>
       </c>
       <c r="B6">
-        <v>822946</v>
+        <v>830516</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1818,7 +1818,7 @@
         <v>69</v>
       </c>
       <c r="B7">
-        <v>822946</v>
+        <v>830516</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1826,7 +1826,7 @@
         <v>70</v>
       </c>
       <c r="B8">
-        <v>794343</v>
+        <v>809198</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1834,7 +1834,7 @@
         <v>71</v>
       </c>
       <c r="B9">
-        <v>794343</v>
+        <v>809198</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1842,7 +1842,7 @@
         <v>72</v>
       </c>
       <c r="B10">
-        <v>160813</v>
+        <v>163898</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1850,7 +1850,7 @@
         <v>73</v>
       </c>
       <c r="B11">
-        <v>156681</v>
+        <v>163898</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1858,7 +1858,7 @@
         <v>74</v>
       </c>
       <c r="B12">
-        <v>156681</v>
+        <v>163745</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1866,7 +1866,7 @@
         <v>75</v>
       </c>
       <c r="B13">
-        <v>102741</v>
+        <v>105860</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1874,7 +1874,7 @@
         <v>76</v>
       </c>
       <c r="B14">
-        <v>102741</v>
+        <v>105860</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1882,7 +1882,7 @@
         <v>77</v>
       </c>
       <c r="B15">
-        <v>102550</v>
+        <v>104366</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1890,7 +1890,7 @@
         <v>78</v>
       </c>
       <c r="B16">
-        <v>102550</v>
+        <v>104366</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1898,7 +1898,7 @@
         <v>79</v>
       </c>
       <c r="B17">
-        <v>100232</v>
+        <v>101952</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1906,7 +1906,7 @@
         <v>80</v>
       </c>
       <c r="B18">
-        <v>100232</v>
+        <v>101952</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1914,7 +1914,7 @@
         <v>81</v>
       </c>
       <c r="B19">
-        <v>76803</v>
+        <v>78138</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1922,7 +1922,7 @@
         <v>82</v>
       </c>
       <c r="B20">
-        <v>76803</v>
+        <v>78138</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1930,7 +1930,7 @@
         <v>83</v>
       </c>
       <c r="B21">
-        <v>76803</v>
+        <v>78138</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1938,7 +1938,7 @@
         <v>84</v>
       </c>
       <c r="B22">
-        <v>74389</v>
+        <v>76049</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1946,7 +1946,7 @@
         <v>85</v>
       </c>
       <c r="B23">
-        <v>74389</v>
+        <v>76049</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1954,7 +1954,7 @@
         <v>86</v>
       </c>
       <c r="B24">
-        <v>58263</v>
+        <v>59379</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1962,7 +1962,7 @@
         <v>87</v>
       </c>
       <c r="B25">
-        <v>58263</v>
+        <v>59379</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1970,7 +1970,7 @@
         <v>88</v>
       </c>
       <c r="B26">
-        <v>48001</v>
+        <v>49144</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1978,7 +1978,7 @@
         <v>89</v>
       </c>
       <c r="B27">
-        <v>48001</v>
+        <v>49144</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1986,7 +1986,7 @@
         <v>90</v>
       </c>
       <c r="B28">
-        <v>45564</v>
+        <v>46850</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1994,7 +1994,7 @@
         <v>91</v>
       </c>
       <c r="B29">
-        <v>45564</v>
+        <v>46850</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -2002,7 +2002,7 @@
         <v>92</v>
       </c>
       <c r="B30">
-        <v>45564</v>
+        <v>46850</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -2010,7 +2010,7 @@
         <v>17</v>
       </c>
       <c r="B31">
-        <v>38932</v>
+        <v>39527</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2018,7 +2018,7 @@
         <v>93</v>
       </c>
       <c r="B32">
-        <v>36980</v>
+        <v>37611</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2026,7 +2026,7 @@
         <v>94</v>
       </c>
       <c r="B33">
-        <v>36980</v>
+        <v>37611</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -2034,7 +2034,7 @@
         <v>19</v>
       </c>
       <c r="B34">
-        <v>25381</v>
+        <v>25460</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -2042,7 +2042,7 @@
         <v>20</v>
       </c>
       <c r="B35">
-        <v>19689</v>
+        <v>19811</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -2050,7 +2050,7 @@
         <v>95</v>
       </c>
       <c r="B36">
-        <v>17119</v>
+        <v>17485</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -2058,7 +2058,7 @@
         <v>96</v>
       </c>
       <c r="B37">
-        <v>17119</v>
+        <v>17485</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -2066,7 +2066,7 @@
         <v>97</v>
       </c>
       <c r="B38">
-        <v>17119</v>
+        <v>17485</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -2074,7 +2074,7 @@
         <v>98</v>
       </c>
       <c r="B39">
-        <v>14655</v>
+        <v>14964</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -2082,7 +2082,7 @@
         <v>99</v>
       </c>
       <c r="B40">
-        <v>14655</v>
+        <v>14964</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -2090,7 +2090,7 @@
         <v>23</v>
       </c>
       <c r="B41">
-        <v>13751</v>
+        <v>14086</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -2098,7 +2098,7 @@
         <v>24</v>
       </c>
       <c r="B42">
-        <v>9665</v>
+        <v>9747</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -2106,7 +2106,7 @@
         <v>25</v>
       </c>
       <c r="B43">
-        <v>2009</v>
+        <v>2040</v>
       </c>
     </row>
   </sheetData>
@@ -2138,10 +2138,10 @@
         <v>23</v>
       </c>
       <c r="B2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C2">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2149,10 +2149,10 @@
         <v>90</v>
       </c>
       <c r="B3">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C3">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2160,10 +2160,10 @@
         <v>91</v>
       </c>
       <c r="B4">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C4">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2171,10 +2171,10 @@
         <v>92</v>
       </c>
       <c r="B5">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C5">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2182,10 +2182,10 @@
         <v>81</v>
       </c>
       <c r="B6">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C6">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2193,10 +2193,10 @@
         <v>82</v>
       </c>
       <c r="B7">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C7">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2204,15 +2204,15 @@
         <v>83</v>
       </c>
       <c r="B8">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C8">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B9">
         <v>47</v>
@@ -2229,7 +2229,7 @@
         <v>47</v>
       </c>
       <c r="C10">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2240,7 +2240,7 @@
         <v>28</v>
       </c>
       <c r="C11">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2251,7 +2251,7 @@
         <v>28</v>
       </c>
       <c r="C12">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2377,7 +2377,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B24">
         <v>5</v>
@@ -2388,7 +2388,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B25">
         <v>5</v>
@@ -2621,7 +2621,7 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>92261</v>
+        <v>95629</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2629,7 +2629,7 @@
         <v>79</v>
       </c>
       <c r="B3">
-        <v>68083</v>
+        <v>70320</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2637,7 +2637,7 @@
         <v>80</v>
       </c>
       <c r="B4">
-        <v>68083</v>
+        <v>70320</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2645,7 +2645,7 @@
         <v>70</v>
       </c>
       <c r="B5">
-        <v>47607</v>
+        <v>48821</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2653,23 +2653,23 @@
         <v>71</v>
       </c>
       <c r="B6">
-        <v>47607</v>
+        <v>48821</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B7">
-        <v>46249</v>
+        <v>47924</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B8">
-        <v>46249</v>
+        <v>47924</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2677,7 +2677,7 @@
         <v>65</v>
       </c>
       <c r="B9">
-        <v>32104</v>
+        <v>35477</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2685,7 +2685,7 @@
         <v>66</v>
       </c>
       <c r="B10">
-        <v>32104</v>
+        <v>35477</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2693,7 +2693,7 @@
         <v>67</v>
       </c>
       <c r="B11">
-        <v>32104</v>
+        <v>35477</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2701,7 +2701,7 @@
         <v>98</v>
       </c>
       <c r="B12">
-        <v>24242</v>
+        <v>25078</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2709,7 +2709,7 @@
         <v>99</v>
       </c>
       <c r="B13">
-        <v>24242</v>
+        <v>25078</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2717,7 +2717,7 @@
         <v>23</v>
       </c>
       <c r="B14">
-        <v>21989</v>
+        <v>22417</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2725,7 +2725,7 @@
         <v>88</v>
       </c>
       <c r="B15">
-        <v>20854</v>
+        <v>21761</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2733,7 +2733,7 @@
         <v>89</v>
       </c>
       <c r="B16">
-        <v>20854</v>
+        <v>21761</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2741,7 +2741,7 @@
         <v>75</v>
       </c>
       <c r="B17">
-        <v>16570</v>
+        <v>16936</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2749,7 +2749,7 @@
         <v>76</v>
       </c>
       <c r="B18">
-        <v>16570</v>
+        <v>16936</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -2757,7 +2757,7 @@
         <v>93</v>
       </c>
       <c r="B19">
-        <v>16543</v>
+        <v>16821</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -2765,7 +2765,7 @@
         <v>94</v>
       </c>
       <c r="B20">
-        <v>16543</v>
+        <v>16821</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2773,7 +2773,7 @@
         <v>90</v>
       </c>
       <c r="B21">
-        <v>15125</v>
+        <v>15702</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2781,7 +2781,7 @@
         <v>91</v>
       </c>
       <c r="B22">
-        <v>15125</v>
+        <v>15702</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2789,15 +2789,15 @@
         <v>92</v>
       </c>
       <c r="B23">
-        <v>15125</v>
+        <v>15702</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B24">
-        <v>13187</v>
+        <v>13747</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -2805,7 +2805,7 @@
         <v>81</v>
       </c>
       <c r="B25">
-        <v>9040</v>
+        <v>9270</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -2813,7 +2813,7 @@
         <v>82</v>
       </c>
       <c r="B26">
-        <v>9040</v>
+        <v>9270</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -2821,7 +2821,7 @@
         <v>83</v>
       </c>
       <c r="B27">
-        <v>9040</v>
+        <v>9270</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -2829,7 +2829,7 @@
         <v>84</v>
       </c>
       <c r="B28">
-        <v>8401</v>
+        <v>8642</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -2837,7 +2837,7 @@
         <v>85</v>
       </c>
       <c r="B29">
-        <v>8401</v>
+        <v>8642</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -2845,7 +2845,7 @@
         <v>77</v>
       </c>
       <c r="B30">
-        <v>7391</v>
+        <v>7671</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -2853,7 +2853,7 @@
         <v>78</v>
       </c>
       <c r="B31">
-        <v>7391</v>
+        <v>7671</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2861,7 +2861,7 @@
         <v>20</v>
       </c>
       <c r="B32">
-        <v>6773</v>
+        <v>6907</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2869,7 +2869,7 @@
         <v>86</v>
       </c>
       <c r="B33">
-        <v>5796</v>
+        <v>6076</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -2877,7 +2877,7 @@
         <v>87</v>
       </c>
       <c r="B34">
-        <v>5796</v>
+        <v>6076</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -2885,7 +2885,7 @@
         <v>19</v>
       </c>
       <c r="B35">
-        <v>4496</v>
+        <v>4573</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -2893,7 +2893,7 @@
         <v>95</v>
       </c>
       <c r="B36">
-        <v>3957</v>
+        <v>4116</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -2901,7 +2901,7 @@
         <v>96</v>
       </c>
       <c r="B37">
-        <v>3957</v>
+        <v>4116</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -2909,7 +2909,7 @@
         <v>97</v>
       </c>
       <c r="B38">
-        <v>3957</v>
+        <v>4116</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -2917,7 +2917,7 @@
         <v>25</v>
       </c>
       <c r="B39">
-        <v>2096</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -2925,7 +2925,7 @@
         <v>24</v>
       </c>
       <c r="B40">
-        <v>938</v>
+        <v>948</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -2978,7 +2978,7 @@
         <v>57</v>
       </c>
       <c r="B2">
-        <v>2464739</v>
+        <v>2713143</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2986,7 +2986,7 @@
         <v>100</v>
       </c>
       <c r="B3">
-        <v>2447620</v>
+        <v>2695658</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2994,7 +2994,7 @@
         <v>49</v>
       </c>
       <c r="B4">
-        <v>1202130</v>
+        <v>1220570</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3002,7 +3002,7 @@
         <v>50</v>
       </c>
       <c r="B5">
-        <v>868016</v>
+        <v>875787</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3010,7 +3010,7 @@
         <v>51</v>
       </c>
       <c r="B6">
-        <v>794343</v>
+        <v>809198</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3018,7 +3018,7 @@
         <v>53</v>
       </c>
       <c r="B7">
-        <v>208814</v>
+        <v>212889</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3026,7 +3026,7 @@
         <v>54</v>
       </c>
       <c r="B8">
-        <v>151192</v>
+        <v>154187</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3034,7 +3034,7 @@
         <v>101</v>
       </c>
       <c r="B9">
-        <v>48001</v>
+        <v>49144</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3042,7 +3042,7 @@
         <v>56</v>
       </c>
       <c r="B10">
-        <v>45564</v>
+        <v>46850</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3050,7 +3050,7 @@
         <v>58</v>
       </c>
       <c r="B11">
-        <v>14655</v>
+        <v>14964</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3058,7 +3058,7 @@
         <v>59</v>
       </c>
       <c r="B12">
-        <v>13751</v>
+        <v>14086</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3066,7 +3066,7 @@
         <v>60</v>
       </c>
       <c r="B13">
-        <v>9665</v>
+        <v>9747</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3074,7 +3074,7 @@
         <v>61</v>
       </c>
       <c r="B14">
-        <v>2009</v>
+        <v>2040</v>
       </c>
     </row>
   </sheetData>
@@ -3106,10 +3106,10 @@
         <v>59</v>
       </c>
       <c r="B2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C2">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3120,7 +3120,7 @@
         <v>92</v>
       </c>
       <c r="C3">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3128,10 +3128,10 @@
         <v>54</v>
       </c>
       <c r="B4">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C4">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3142,7 +3142,7 @@
         <v>75</v>
       </c>
       <c r="C5">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3150,10 +3150,10 @@
         <v>56</v>
       </c>
       <c r="B6">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C6">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3164,7 +3164,7 @@
         <v>28</v>
       </c>
       <c r="C7">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3270,7 +3270,7 @@
         <v>49</v>
       </c>
       <c r="B2">
-        <v>223136</v>
+        <v>230694</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3278,7 +3278,7 @@
         <v>51</v>
       </c>
       <c r="B3">
-        <v>47607</v>
+        <v>48821</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3286,7 +3286,7 @@
         <v>57</v>
       </c>
       <c r="B4">
-        <v>36061</v>
+        <v>39593</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3294,7 +3294,7 @@
         <v>53</v>
       </c>
       <c r="B5">
-        <v>34041</v>
+        <v>35508</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3302,7 +3302,7 @@
         <v>100</v>
       </c>
       <c r="B6">
-        <v>32104</v>
+        <v>35477</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3310,7 +3310,7 @@
         <v>58</v>
       </c>
       <c r="B7">
-        <v>24242</v>
+        <v>25078</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3318,7 +3318,7 @@
         <v>59</v>
       </c>
       <c r="B8">
-        <v>21989</v>
+        <v>22417</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3326,7 +3326,7 @@
         <v>101</v>
       </c>
       <c r="B9">
-        <v>20854</v>
+        <v>21761</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3334,7 +3334,7 @@
         <v>54</v>
       </c>
       <c r="B10">
-        <v>17441</v>
+        <v>17912</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3342,7 +3342,7 @@
         <v>56</v>
       </c>
       <c r="B11">
-        <v>15125</v>
+        <v>15702</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3350,7 +3350,7 @@
         <v>50</v>
       </c>
       <c r="B12">
-        <v>11269</v>
+        <v>11480</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3358,7 +3358,7 @@
         <v>61</v>
       </c>
       <c r="B13">
-        <v>2096</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3366,7 +3366,7 @@
         <v>60</v>
       </c>
       <c r="B14">
-        <v>938</v>
+        <v>948</v>
       </c>
     </row>
   </sheetData>
